--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
@@ -64,175 +58,169 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
+    <t>forced</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>strong</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -590,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -709,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -809,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7207792207792207</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4583333333333333</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4117647058823529</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,45 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="C16">
-        <v>86</v>
-      </c>
-      <c r="D16">
-        <v>86</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>147</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,602 +1318,434 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.69375</v>
+      </c>
+      <c r="L17">
+        <v>111</v>
+      </c>
+      <c r="M17">
+        <v>111</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>24</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.66</v>
+      </c>
+      <c r="L21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L22">
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L23">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L24">
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <v>38</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K17">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K25">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C19">
+      <c r="K26">
+        <v>0.5625</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>21</v>
       </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>65</v>
-      </c>
-      <c r="J19" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>22</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K27">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K20">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.225</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>62</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K28">
+        <v>0.5221932114882507</v>
+      </c>
+      <c r="L28">
+        <v>200</v>
+      </c>
+      <c r="M28">
+        <v>200</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K21">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L21">
+      <c r="K29">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="L29">
+        <v>145</v>
+      </c>
+      <c r="M29">
+        <v>145</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M21">
-        <v>49</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>177</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K30">
+        <v>0.4823529411764706</v>
+      </c>
+      <c r="L30">
+        <v>164</v>
+      </c>
+      <c r="M30">
+        <v>164</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K23">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K31">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.5774647887323944</v>
-      </c>
-      <c r="L26">
-        <v>123</v>
-      </c>
-      <c r="M26">
-        <v>123</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L27">
-        <v>78</v>
-      </c>
-      <c r="M27">
-        <v>78</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L28">
+      <c r="K32">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
+        <v>13</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29">
-        <v>0.4806201550387597</v>
-      </c>
-      <c r="L29">
-        <v>62</v>
-      </c>
-      <c r="M29">
-        <v>62</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30">
-        <v>0.48</v>
-      </c>
-      <c r="L30">
-        <v>12</v>
-      </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4571428571428571</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4090909090909091</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4021739130434783</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,15 +1861,15 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3783783783783784</v>
+        <v>0.35</v>
       </c>
       <c r="L38">
         <v>14</v>
@@ -2091,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2117,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.2916666666666667</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.2105263157894737</v>
+        <v>0.3125</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.03658536585365853</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,85 +1991,189 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>395</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.0352112676056338</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.02857142857142857</v>
+        <v>0.04031354983202688</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>306</v>
+        <v>857</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.009803921568627451</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1111</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>0.03107658157602664</v>
+      </c>
+      <c r="L46">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47">
+        <v>0.01073762838468721</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>24</v>
+      </c>
+      <c r="N47">
+        <v>0.96</v>
+      </c>
+      <c r="O47">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>0.009339774557165861</v>
+      </c>
+      <c r="L48">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+      <c r="N48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49">
+        <v>0.004068857589984351</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>0.68</v>
+      </c>
+      <c r="O49">
+        <v>0.32</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3182</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,30 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>die</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -100,127 +97,124 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>energy</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -797,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -815,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6111111111111112</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.8482142857142857</v>
@@ -897,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5924657534246576</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.24</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5600000000000001</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>416</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1937984496124031</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1746031746031746</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1409395973154362</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,69 +1209,45 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L14">
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <v>77</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0.7183098591549296</v>
-      </c>
-      <c r="L14">
-        <v>102</v>
-      </c>
-      <c r="M14">
-        <v>102</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.0873015873015873</v>
-      </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>230</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
-        <v>0.7169811320754716</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7083333333333334</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.69375</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6862745098039216</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6388888888888888</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1471,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6031746031746031</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1523,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5925925925925926</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,47 +1519,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>36</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>27</v>
-      </c>
-      <c r="M26">
-        <v>27</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5294117647058824</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5221932114882507</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4915254237288136</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4823529411764706</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L30">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4642857142857143</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4606741573033708</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.45</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4444444444444444</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3939393939393939</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.35</v>
+        <v>0.328125</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1887,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3389121338912134</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L39">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1913,15 +1883,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>158</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.3384615384615385</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L40">
         <v>22</v>
@@ -1939,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.3125</v>
+        <v>0.2</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1965,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.2714285714285714</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1991,73 +1961,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.04316546762589928</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.04031354983202688</v>
+        <v>0.03125</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>857</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.03365384615384615</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2069,111 +2039,85 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>402</v>
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.03107658157602664</v>
+        <v>0.01616628175519631</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.01073762838468721</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2119</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.009339774557165861</v>
+        <v>0.008054123711340205</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K49">
-        <v>0.004068857589984351</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>0.68</v>
-      </c>
-      <c r="O49">
-        <v>0.32</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>3182</v>
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
